--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1115050562828648</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.5106445560849</v>
+        <v>-1.522280012835222</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2170320008885681</v>
+        <v>0.2149540011428874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.135475237755848</v>
+        <v>0.1376453355237176</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.134714965880285</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.411738599302081</v>
+        <v>-1.42984165490864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1889872382510156</v>
+        <v>0.1910188840252634</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1118737472484051</v>
+        <v>0.1155161935299445</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1664306617310023</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.415434718603174</v>
+        <v>-1.440516486593085</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1753457523948685</v>
+        <v>0.1754829845471368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1433804196471796</v>
+        <v>0.1432730736080719</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1981296376301679</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.4985809350195</v>
+        <v>-1.532554126635043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1976420126540705</v>
+        <v>0.1914836435809454</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1080239279367714</v>
+        <v>0.1116395377085339</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2219929311822131</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.490481188432285</v>
+        <v>-1.533995369194199</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3041750274996236</v>
+        <v>0.2980337362054474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1253255477740836</v>
+        <v>0.1288691869059898</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2320018242668354</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.395501291045694</v>
+        <v>-1.439374105165536</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3715950491866771</v>
+        <v>0.3709027892185681</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04312409848604078</v>
+        <v>0.04434454976021365</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2278464972649424</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.119637218555931</v>
+        <v>-1.171915959442714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4408332444111167</v>
+        <v>0.451886226915145</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01044645439409464</v>
+        <v>-0.0103494770064917</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2095876628553699</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5776452373393348</v>
+        <v>-0.6503831574069547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4002753491694011</v>
+        <v>0.4151665624922049</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01814548309668538</v>
+        <v>-0.0227540437301937</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1743665518229411</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006160465792401483</v>
+        <v>-0.05711270521344205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3766482419935348</v>
+        <v>0.4053529388033287</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06252697106093456</v>
+        <v>-0.06503313512169233</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1166166710217746</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7034980235353748</v>
+        <v>0.6191777098163093</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1937116838131061</v>
+        <v>0.2289132556716202</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03698654272210963</v>
+        <v>-0.04722650096403277</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02894231838637273</v>
       </c>
       <c r="E12" t="n">
-        <v>1.441190372934707</v>
+        <v>1.35274028631338</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.189108688471873</v>
+        <v>-0.1480177225586796</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04790404682971532</v>
+        <v>0.03270604340650721</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08957692094084239</v>
       </c>
       <c r="E13" t="n">
-        <v>2.153052581673758</v>
+        <v>2.051944201327203</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5714588119150793</v>
+        <v>-0.5266680671767322</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1636932178655969</v>
+        <v>0.1491441700424487</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.232836031150456</v>
       </c>
       <c r="E14" t="n">
-        <v>2.784840134524587</v>
+        <v>2.678626108192974</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.112858560154554</v>
+        <v>-1.079250101103705</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3212576858139832</v>
+        <v>0.3073563737495414</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3885714312427563</v>
       </c>
       <c r="E15" t="n">
-        <v>3.467878102001203</v>
+        <v>3.363973235351757</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.723614218309079</v>
+        <v>-1.694918670309437</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4420140508413009</v>
+        <v>0.4204844608727712</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5469078247502089</v>
       </c>
       <c r="E16" t="n">
-        <v>4.086939050011007</v>
+        <v>3.993507741222679</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.252883254208712</v>
+        <v>-2.227142161967236</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6372978432018174</v>
+        <v>0.6199980531265354</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7005207894725864</v>
       </c>
       <c r="E17" t="n">
-        <v>4.687587712631141</v>
+        <v>4.599931132810264</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.841893410475139</v>
+        <v>-2.817356911570241</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8378153648895089</v>
+        <v>0.8235975039938349</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8476421506843768</v>
       </c>
       <c r="E18" t="n">
-        <v>5.078157737034881</v>
+        <v>5.013365863543934</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.421360747833166</v>
+        <v>-3.408406642579715</v>
       </c>
       <c r="G18" t="n">
-        <v>1.021668023926413</v>
+        <v>1.003144732973575</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9877805918150777</v>
       </c>
       <c r="E19" t="n">
-        <v>5.407762530273592</v>
+        <v>5.354742125843884</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.970570225378061</v>
+        <v>-3.962605881181085</v>
       </c>
       <c r="G19" t="n">
-        <v>1.275474315141583</v>
+        <v>1.262475685678728</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.116541108953096</v>
       </c>
       <c r="E20" t="n">
-        <v>5.770989810738716</v>
+        <v>5.722146143103378</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.505112330488519</v>
+        <v>-4.493776344790479</v>
       </c>
       <c r="G20" t="n">
-        <v>1.456820200197052</v>
+        <v>1.443739231442837</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.230202025079817</v>
       </c>
       <c r="E21" t="n">
-        <v>6.034652420090135</v>
+        <v>6.008912547690013</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.850018813665485</v>
+        <v>-4.855066517186252</v>
       </c>
       <c r="G21" t="n">
-        <v>1.588169057617454</v>
+        <v>1.581703288523248</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.32498485430334</v>
       </c>
       <c r="E22" t="n">
-        <v>6.187177723407228</v>
+        <v>6.165571893354105</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.131836321880986</v>
+        <v>-5.144446431872751</v>
       </c>
       <c r="G22" t="n">
-        <v>1.792995058965694</v>
+        <v>1.787563715339252</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.399731749224498</v>
       </c>
       <c r="E23" t="n">
-        <v>6.314747512314498</v>
+        <v>6.321467618330908</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.373315506298399</v>
+        <v>-5.395839571930367</v>
       </c>
       <c r="G23" t="n">
-        <v>1.914193616483653</v>
+        <v>1.916558888868082</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.452173301908888</v>
       </c>
       <c r="E24" t="n">
-        <v>6.441052325738193</v>
+        <v>6.460716168356551</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.482427265765243</v>
+        <v>-5.501239354158522</v>
       </c>
       <c r="G24" t="n">
-        <v>1.995277691091894</v>
+        <v>2.004238035754</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.482083452210123</v>
       </c>
       <c r="E25" t="n">
-        <v>6.483114895289447</v>
+        <v>6.521050741541822</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.496370662356381</v>
+        <v>-5.533128751781956</v>
       </c>
       <c r="G25" t="n">
-        <v>2.060322071743014</v>
+        <v>2.075013841004521</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.489874200346934</v>
       </c>
       <c r="E26" t="n">
-        <v>6.544313116152993</v>
+        <v>6.586446436502749</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.485894664812556</v>
+        <v>-5.521215171203036</v>
       </c>
       <c r="G26" t="n">
-        <v>2.081802258136727</v>
+        <v>2.096711159159157</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.476658636554924</v>
       </c>
       <c r="E27" t="n">
-        <v>6.457477489563018</v>
+        <v>6.513229118783205</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.480672219017901</v>
+        <v>-5.526262874723803</v>
       </c>
       <c r="G27" t="n">
-        <v>2.087995392688426</v>
+        <v>2.107014549151462</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.445381653223444</v>
       </c>
       <c r="E28" t="n">
-        <v>6.391754877119355</v>
+        <v>6.460969895358078</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.374273691681571</v>
+        <v>-5.420126613278475</v>
       </c>
       <c r="G28" t="n">
-        <v>2.058167221992063</v>
+        <v>2.073871459576972</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.397880656066877</v>
       </c>
       <c r="E29" t="n">
-        <v>6.318115494291502</v>
+        <v>6.392187920799846</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.214025572755493</v>
+        <v>-5.264195207942081</v>
       </c>
       <c r="G29" t="n">
-        <v>1.97861587804449</v>
+        <v>1.996241365761156</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.337863149997327</v>
       </c>
       <c r="E30" t="n">
-        <v>6.197839136836784</v>
+        <v>6.28406118322595</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.027346541302538</v>
+        <v>-5.084902925805222</v>
       </c>
       <c r="G30" t="n">
-        <v>1.942532360887399</v>
+        <v>1.962708536874224</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.267249691386038</v>
       </c>
       <c r="E31" t="n">
-        <v>6.064301884028211</v>
+        <v>6.16531206714581</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.881899672399444</v>
+        <v>-4.939048324929722</v>
       </c>
       <c r="G31" t="n">
-        <v>1.833487692694997</v>
+        <v>1.858245592805554</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.190998438642532</v>
       </c>
       <c r="E32" t="n">
-        <v>5.895306282756213</v>
+        <v>5.997968131066446</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.632383258264182</v>
+        <v>-4.692126513353347</v>
       </c>
       <c r="G32" t="n">
-        <v>1.784954474684124</v>
+        <v>1.813304807580727</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.112342134315837</v>
       </c>
       <c r="E33" t="n">
-        <v>5.64380183217509</v>
+        <v>5.753804685750663</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.473305882077122</v>
+        <v>-4.535060655558201</v>
       </c>
       <c r="G33" t="n">
-        <v>1.698055416343768</v>
+        <v>1.726950408404707</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.035750293753768</v>
       </c>
       <c r="E34" t="n">
-        <v>5.429063399988341</v>
+        <v>5.543128325271056</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.264302229053497</v>
+        <v>-4.324809714750626</v>
       </c>
       <c r="G34" t="n">
-        <v>1.54937200336951</v>
+        <v>1.574119534828562</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9632736210027258</v>
       </c>
       <c r="E35" t="n">
-        <v>5.190056224073786</v>
+        <v>5.315654749353807</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.121349020837287</v>
+        <v>-4.1795263045889</v>
       </c>
       <c r="G35" t="n">
-        <v>1.502334310858023</v>
+        <v>1.532482689909679</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8949099171223699</v>
       </c>
       <c r="E36" t="n">
-        <v>4.928513698994744</v>
+        <v>5.059744231803857</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.959724310943789</v>
+        <v>-4.013769382110434</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456902539488413</v>
+        <v>1.479275649752886</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.82971726896144</v>
       </c>
       <c r="E37" t="n">
-        <v>4.614665596519143</v>
+        <v>4.754974188680974</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.827915268372781</v>
+        <v>-3.877967493829095</v>
       </c>
       <c r="G37" t="n">
-        <v>1.369043466002856</v>
+        <v>1.392782188662567</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7651640053368455</v>
       </c>
       <c r="E38" t="n">
-        <v>4.332872485130713</v>
+        <v>4.477189475980131</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.74186491465412</v>
+        <v>-3.794902396862777</v>
       </c>
       <c r="G38" t="n">
-        <v>1.274419762291485</v>
+        <v>1.292502690515712</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7008783534137656</v>
       </c>
       <c r="E39" t="n">
-        <v>4.062332410228284</v>
+        <v>4.202449487297614</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.710711996247859</v>
+        <v>-3.766302606409384</v>
       </c>
       <c r="G39" t="n">
-        <v>1.208957585976793</v>
+        <v>1.239520101167961</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.635258743337019</v>
       </c>
       <c r="E40" t="n">
-        <v>3.746078780603587</v>
+        <v>3.894583486819558</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.621480601239618</v>
+        <v>-3.673080805373519</v>
       </c>
       <c r="G40" t="n">
-        <v>1.118814359556814</v>
+        <v>1.141946821063837</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5690587932259454</v>
       </c>
       <c r="E41" t="n">
-        <v>3.543437515119459</v>
+        <v>3.697103370102072</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.545951074234523</v>
+        <v>-3.605115514601453</v>
       </c>
       <c r="G41" t="n">
-        <v>1.066003767839906</v>
+        <v>1.092801242693509</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5017852977757413</v>
       </c>
       <c r="E42" t="n">
-        <v>3.250565804558577</v>
+        <v>3.398297131356431</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.495445982675723</v>
+        <v>-3.569951452864558</v>
       </c>
       <c r="G42" t="n">
-        <v>1.042067430880929</v>
+        <v>1.067995768770166</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4341973620679893</v>
       </c>
       <c r="E43" t="n">
-        <v>2.929692635728191</v>
+        <v>3.075061129824323</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.403577595621562</v>
+        <v>-3.477371898301309</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9681804202583155</v>
+        <v>1.000678213756806</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3669456380833214</v>
       </c>
       <c r="E44" t="n">
-        <v>2.706096935473706</v>
+        <v>2.848382890469554</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.360013706324493</v>
+        <v>-3.428476387408447</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9552562011180242</v>
+        <v>0.9884761406977839</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3012339089238995</v>
       </c>
       <c r="E45" t="n">
-        <v>2.439112698116718</v>
+        <v>2.571722871496635</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.267788820634773</v>
+        <v>-3.33578765704406</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8815607055879099</v>
+        <v>0.9128807422595994</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.238928807812447</v>
       </c>
       <c r="E46" t="n">
-        <v>2.279957557043373</v>
+        <v>2.401223205835775</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.195616906955175</v>
+        <v>-3.271524584779855</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8433772315407745</v>
+        <v>0.8758603869430225</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1812472695302126</v>
       </c>
       <c r="E47" t="n">
-        <v>2.063626012048958</v>
+        <v>2.181843277298974</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.100801993111644</v>
+        <v>-3.175422433348047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7676689977773915</v>
+        <v>0.797805178415513</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1301051508796874</v>
       </c>
       <c r="E48" t="n">
-        <v>1.920427005800019</v>
+        <v>2.031070886006854</v>
       </c>
       <c r="F48" t="n">
-        <v>-3.065360722427168</v>
+        <v>-3.149708482576687</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6862787429894237</v>
+        <v>0.7109915089699015</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08612545336521349</v>
       </c>
       <c r="E49" t="n">
-        <v>1.72875211408382</v>
+        <v>1.831782964403486</v>
       </c>
       <c r="F49" t="n">
-        <v>-3.007237416655447</v>
+        <v>-3.088367235314443</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5994089608415513</v>
+        <v>0.6227103703760341</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05027583257383637</v>
       </c>
       <c r="E50" t="n">
-        <v>1.627477835313189</v>
+        <v>1.720027808723616</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.923544101392078</v>
+        <v>-3.008421882609691</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5738362067068586</v>
+        <v>0.5903986026839522</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02170472241410259</v>
       </c>
       <c r="E51" t="n">
-        <v>1.515289635952828</v>
+        <v>1.59386022745219</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.865368647402495</v>
+        <v>-2.949645046832835</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4895659064832865</v>
+        <v>0.5086448351726425</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0009107056773579457</v>
       </c>
       <c r="E52" t="n">
-        <v>1.448002576973306</v>
+        <v>1.518092831383162</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.757806696375268</v>
+        <v>-2.835309316769643</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4080591568460598</v>
+        <v>0.4228393646056955</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.01917261341263685</v>
       </c>
       <c r="E53" t="n">
-        <v>1.369539941433729</v>
+        <v>1.426834669966088</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.721762824062165</v>
+        <v>-2.800268154049114</v>
       </c>
       <c r="G53" t="n">
-        <v>0.402350299311698</v>
+        <v>0.4182478817511361</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.0348790971450097</v>
       </c>
       <c r="E54" t="n">
-        <v>1.255150538350984</v>
+        <v>1.291309075751316</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.668442338659496</v>
+        <v>-2.745569857837672</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3388825636099718</v>
+        <v>0.3471201522701311</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04991393948747196</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205379181366312</v>
+        <v>1.234584013131039</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.645914918463807</v>
+        <v>-2.726817846631053</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3073447852566832</v>
+        <v>0.3148492492633913</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.06594899832821549</v>
       </c>
       <c r="E56" t="n">
-        <v>1.179594784756788</v>
+        <v>1.201492766814073</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.612760850317136</v>
+        <v>-2.688302575735766</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2677603234150575</v>
+        <v>0.2674578027593905</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.08401965628544616</v>
       </c>
       <c r="E57" t="n">
-        <v>1.047959264618315</v>
+        <v>1.062035013996307</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.595246368163638</v>
+        <v>-2.6727441091926</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2212416733994831</v>
+        <v>0.2213935436479934</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1047946689615881</v>
       </c>
       <c r="E58" t="n">
-        <v>1.029131013327103</v>
+        <v>1.029116375230861</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.623288691118484</v>
+        <v>-2.699426918958974</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2062376247514809</v>
+        <v>0.2044963012193652</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.128885901353339</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9731896987764473</v>
+        <v>0.9615859579013155</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.565410878419153</v>
+        <v>-2.647745900335404</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2018748621507021</v>
+        <v>0.1933353627555525</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1560776624583192</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9377356197577595</v>
+        <v>0.9094035844814587</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.578571136861346</v>
+        <v>-2.652827759414069</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1654632076695197</v>
+        <v>0.1552683835576759</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1855179159537452</v>
       </c>
       <c r="E61" t="n">
-        <v>1.00418098820337</v>
+        <v>0.9648124382813128</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.59603011623326</v>
+        <v>-2.662588929924745</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1799171078670952</v>
+        <v>0.165999937865058</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2156402779289422</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9946796439009884</v>
+        <v>0.944803380559916</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.57520376480502</v>
+        <v>-2.633907410100667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1271260336118438</v>
+        <v>0.103737405420586</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2445485640380052</v>
       </c>
       <c r="E63" t="n">
-        <v>1.023331887532582</v>
+        <v>0.9543748657401233</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.582858879218885</v>
+        <v>-2.636383078127588</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0968544505834842</v>
+        <v>0.07335481682905828</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2710263907709058</v>
       </c>
       <c r="E64" t="n">
-        <v>1.065215140404871</v>
+        <v>0.9794981083360526</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.646873103846977</v>
+        <v>-2.698587058187092</v>
       </c>
       <c r="G64" t="n">
-        <v>0.125021807277063</v>
+        <v>0.09775652326439459</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2938166665881874</v>
       </c>
       <c r="E65" t="n">
-        <v>1.084665510786367</v>
+        <v>0.9839944435650392</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.773752462548169</v>
+        <v>-2.818052221141734</v>
       </c>
       <c r="G65" t="n">
-        <v>0.07144271550745311</v>
+        <v>0.03946335458419895</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.312592089335731</v>
       </c>
       <c r="E66" t="n">
-        <v>1.099041341137318</v>
+        <v>0.9838169566481055</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.847347931087297</v>
+        <v>-2.89020949672509</v>
       </c>
       <c r="G66" t="n">
-        <v>0.06927749710499752</v>
+        <v>0.03538481501878468</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3272174628061461</v>
       </c>
       <c r="E67" t="n">
-        <v>1.094118671355285</v>
+        <v>0.9510697055928256</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.878181860979618</v>
+        <v>-2.910529613991628</v>
       </c>
       <c r="G67" t="n">
-        <v>0.02469229563471447</v>
+        <v>-0.01315328235750252</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3385288765366283</v>
       </c>
       <c r="E68" t="n">
-        <v>1.121191220434101</v>
+        <v>0.9740899416953275</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.96009664754959</v>
+        <v>-2.981738462922641</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02703141743622783</v>
+        <v>-0.07239426776936464</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3472503643739545</v>
       </c>
       <c r="E69" t="n">
-        <v>1.096071027441555</v>
+        <v>0.9381076713705758</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.989263054311682</v>
+        <v>-3.009345912434965</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01267388470557855</v>
+        <v>-0.06486662677694011</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3545968790933565</v>
       </c>
       <c r="E70" t="n">
-        <v>1.082229487603435</v>
+        <v>0.9125952993828813</v>
       </c>
       <c r="F70" t="n">
-        <v>-3.051162988913827</v>
+        <v>-3.073642530336392</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.008905794764629044</v>
+        <v>-0.05870337833840098</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3605976634406175</v>
       </c>
       <c r="E71" t="n">
-        <v>1.059333675318989</v>
+        <v>0.8810026281686854</v>
       </c>
       <c r="F71" t="n">
-        <v>-3.105060154316361</v>
+        <v>-3.114169319623593</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.02715706109563793</v>
+        <v>-0.08476223925246176</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.364938262134732</v>
       </c>
       <c r="E72" t="n">
-        <v>1.039961984704795</v>
+        <v>0.8587088075921904</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.169578478383785</v>
+        <v>-3.176294619915797</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.08772035453468983</v>
+        <v>-0.148997255165537</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3671449622510134</v>
       </c>
       <c r="E73" t="n">
-        <v>1.072215200011909</v>
+        <v>0.890471646675199</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.224857114119154</v>
+        <v>-3.226006814594824</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1503976330393505</v>
+        <v>-0.2140032108140217</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3661540535653471</v>
       </c>
       <c r="E74" t="n">
-        <v>1.037808964715874</v>
+        <v>0.851045154288851</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.265171651010847</v>
+        <v>-3.260074543915263</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1795707489288869</v>
+        <v>-0.2458288717267354</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3610988020637327</v>
       </c>
       <c r="E75" t="n">
-        <v>1.038512203256164</v>
+        <v>0.8589234996704057</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.261040048346556</v>
+        <v>-3.250148389861527</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1684067608616904</v>
+        <v>-0.2302722349455994</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3509824226479575</v>
       </c>
       <c r="E76" t="n">
-        <v>1.044838910436072</v>
+        <v>0.8668152633068488</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.316115275536228</v>
+        <v>-3.307636158288077</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1929060546053064</v>
+        <v>-0.257825401517693</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3354089918822522</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9432871177575203</v>
+        <v>0.7757473971409196</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.340143100596718</v>
+        <v>-3.32569529960591</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2121295344950517</v>
+        <v>-0.2752587642211827</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.313851446011791</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9788503725773461</v>
+        <v>0.8111386543299023</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.317573595874333</v>
+        <v>-3.301329578490502</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1873533367641921</v>
+        <v>-0.2486893997006838</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2862632470758636</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9879174533578827</v>
+        <v>0.8274918475148713</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.279290399796549</v>
+        <v>-3.267304543617435</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1429017079221169</v>
+        <v>-0.2007032805368536</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2527458112533846</v>
       </c>
       <c r="E80" t="n">
-        <v>1.030738154310334</v>
+        <v>0.8717470818990336</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.237330601879328</v>
+        <v>-3.222139917504241</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1524487962752542</v>
+        <v>-0.2051526518737307</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2133606639869772</v>
       </c>
       <c r="E81" t="n">
-        <v>1.182562048849167</v>
+        <v>1.038750682240773</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.128417676553104</v>
+        <v>-3.110886116620658</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1742229644351599</v>
+        <v>-0.2243407563642246</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1684114863934446</v>
       </c>
       <c r="E82" t="n">
-        <v>1.26451221081839</v>
+        <v>1.122716632046648</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.999112358360148</v>
+        <v>-2.979578733806276</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1451169398200658</v>
+        <v>-0.1956799738431566</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1195110915355295</v>
       </c>
       <c r="E83" t="n">
-        <v>1.448549065899672</v>
+        <v>1.314062166597402</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.856822438879901</v>
+        <v>-2.835759438229084</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1027555091372062</v>
+        <v>-0.1464642545950023</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.06933337125738843</v>
       </c>
       <c r="E84" t="n">
-        <v>1.68603448972574</v>
+        <v>1.566649226379752</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.759729776269054</v>
+        <v>-2.735263418241983</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1413799558336305</v>
+        <v>-0.188329209846989</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.0205672683682959</v>
       </c>
       <c r="E85" t="n">
-        <v>1.872540913627175</v>
+        <v>1.763934168480679</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.549333369380075</v>
+        <v>-2.525833125704972</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0959311066850722</v>
+        <v>-0.1452810084821111</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.02392119856787466</v>
       </c>
       <c r="E86" t="n">
-        <v>2.076415438719688</v>
+        <v>1.991386397174241</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.346790301124903</v>
+        <v>-2.318235034880912</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09424101648980333</v>
+        <v>-0.1431481158755231</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.06137157343885103</v>
       </c>
       <c r="E87" t="n">
-        <v>2.215776824070529</v>
+        <v>2.138115014379522</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.078262964455742</v>
+        <v>-2.057265225317337</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.08869866730019373</v>
+        <v>-0.1360541284842664</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.08924955009349859</v>
       </c>
       <c r="E88" t="n">
-        <v>2.350120392013763</v>
+        <v>2.288053644106527</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.771512508895458</v>
+        <v>-1.751694356345883</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05787876558343761</v>
+        <v>-0.0982408762879171</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1057862899013611</v>
       </c>
       <c r="E89" t="n">
-        <v>2.405818348214396</v>
+        <v>2.349528768957317</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.562439019954345</v>
+        <v>-1.539281551699574</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09887519379173507</v>
+        <v>-0.136190750715858</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1103224523341776</v>
       </c>
       <c r="E90" t="n">
-        <v>2.499420434792213</v>
+        <v>2.457152931893572</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.350226269290009</v>
+        <v>-1.335713206786789</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1113846668718377</v>
+        <v>-0.1507763937796111</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1037913747763199</v>
       </c>
       <c r="E91" t="n">
-        <v>2.507831240924569</v>
+        <v>2.473143832196553</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.012837668374639</v>
+        <v>-1.003874884029827</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08020247227309328</v>
+        <v>-0.1199327051564618</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08858600751878376</v>
       </c>
       <c r="E92" t="n">
-        <v>2.441776831632754</v>
+        <v>2.410163423115549</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8359686010865003</v>
+        <v>-0.8323676294109797</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08439201740167569</v>
+        <v>-0.1220369314912426</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06742594796969469</v>
       </c>
       <c r="E93" t="n">
-        <v>2.37130903632399</v>
+        <v>2.345098305161419</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5816335086445904</v>
+        <v>-0.5916380375052888</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1285057501888325</v>
+        <v>-0.155337380600333</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04275969009184743</v>
       </c>
       <c r="E94" t="n">
-        <v>2.3014950759807</v>
+        <v>2.278718198228221</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.3315190672857771</v>
+        <v>-0.3401165091452177</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1387987715296327</v>
+        <v>-0.1554733929112478</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01665725292662264</v>
       </c>
       <c r="E95" t="n">
-        <v>2.145723774821954</v>
+        <v>2.120298621491034</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1316334234191965</v>
+        <v>-0.1484074618711216</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1664544047754199</v>
+        <v>-0.1776244920493838</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.00884367292487219</v>
       </c>
       <c r="E96" t="n">
-        <v>1.992289079775828</v>
+        <v>1.970925388231374</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01731042568403273</v>
+        <v>-0.003329899937798299</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1965088560428572</v>
+        <v>-0.2003098817003511</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02984450363446188</v>
       </c>
       <c r="E97" t="n">
-        <v>1.83376093715818</v>
+        <v>1.81222768766559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1669593430895827</v>
+        <v>0.1493954573612689</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1997694919807523</v>
+        <v>-0.2011753591406566</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.04316448724327571</v>
       </c>
       <c r="E98" t="n">
-        <v>1.658173923132566</v>
+        <v>1.641487713258092</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2756374489552587</v>
+        <v>0.259443445066921</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.30381464038585</v>
+        <v>-0.2972994677168272</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04776399722697164</v>
       </c>
       <c r="E99" t="n">
-        <v>1.527518545521627</v>
+        <v>1.520006762466798</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3537121749444241</v>
+        <v>0.342431082107292</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2871290404320534</v>
+        <v>-0.2800124859757571</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04652260357995323</v>
       </c>
       <c r="E100" t="n">
-        <v>1.369816235500295</v>
+        <v>1.363885976760274</v>
       </c>
       <c r="F100" t="n">
-        <v>0.394242623755686</v>
+        <v>0.3817788947263395</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3641821492876658</v>
+        <v>-0.3527327183437513</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.04367929379449893</v>
       </c>
       <c r="E101" t="n">
-        <v>1.285307456292115</v>
+        <v>1.285564232897026</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4361545428997823</v>
+        <v>0.4329951537942274</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3726746847907058</v>
+        <v>-0.3649963933911244</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04579331244006302</v>
       </c>
       <c r="E102" t="n">
-        <v>1.13402395147288</v>
+        <v>1.143849773575291</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4256748858318972</v>
+        <v>0.4245806881378112</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4105745457231533</v>
+        <v>-0.3972172829023708</v>
       </c>
     </row>
   </sheetData>
